--- a/tabelas_template/DISPLAY SAMSUNG - TABLET COMPLETO.xlsx
+++ b/tabelas_template/DISPLAY SAMSUNG - TABLET COMPLETO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonilson\Downloads\pdf_fabiano\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CB198C-BAED-4D16-85ED-C394DA1CFB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55895622-67AA-4965-8D46-B56BD2E9DC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AAAB92E8-5B22-478D-945C-9FFF24822552}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>DISPLAY SAMSUNG - TABLET COMPLETO</t>
   </si>
@@ -33,27 +33,15 @@
     <t>T220</t>
   </si>
   <si>
-    <t>R$ 150,00</t>
-  </si>
-  <si>
     <t>T225</t>
   </si>
   <si>
-    <t>R$ 140,00</t>
-  </si>
-  <si>
     <t>T280</t>
   </si>
   <si>
-    <t>R$ 120,00</t>
-  </si>
-  <si>
     <t>T285</t>
   </si>
   <si>
-    <t>R$ 115,00</t>
-  </si>
-  <si>
     <t>T290</t>
   </si>
   <si>
@@ -63,32 +51,21 @@
     <t>T500 / T505</t>
   </si>
   <si>
-    <t>R$ 220,00</t>
-  </si>
-  <si>
     <t>T510 / T515</t>
   </si>
   <si>
-    <t>R$ 230,00</t>
-  </si>
-  <si>
     <t>T870 / T875</t>
   </si>
   <si>
-    <t>R$ 350,00</t>
-  </si>
-  <si>
     <t>P610 / P613 / P615 / P617 / P619</t>
-  </si>
-  <si>
-    <t>R$ 265,00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -155,17 +132,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -485,7 +462,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,80 +485,80 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
+      <c r="B4" s="5">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
